--- a/resource_api/finans/konteyner_islem/dosyalar/depo_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/depo_listesi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet'!$A$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$2:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,8 +18,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="[$$-409]#,##0.00" numFmtId="164"/>
-    <numFmt formatCode="[$$-409]#,##0.00;\([$$-409]#,##0.00\);[$$-409]#,##0.00;@" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;\([$$-409]#,##0.00\);[$$-409]#,##0.00;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -148,47 +148,115 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,19 +530,19 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="22.109375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="16"/>
-    <col customWidth="1" max="3" min="3" style="8" width="16.109375"/>
-    <col customWidth="1" max="4" min="4" style="8" width="18.88671875"/>
+    <col width="22.109375" customWidth="1" style="5" min="1" max="1"/>
+    <col width="16" customWidth="1" style="8" min="2" max="2"/>
+    <col width="16.109375" customWidth="1" style="8" min="3" max="3"/>
+    <col width="18.88671875" customWidth="1" style="8" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="25.2" r="1">
+    <row r="1" ht="25.2" customHeight="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>DEPO ALACAK LİSTESİ</t>
@@ -484,7 +552,7 @@
       <c r="C1" s="10" t="n"/>
       <c r="D1" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="22.8" r="2">
+    <row r="2" ht="22.8" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Müşteri</t>
@@ -509,30 +577,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>VILLO HOME</t>
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>610788.9300000001</v>
+        <v>340190.47</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>574989.12</v>
+        <v>256502.78</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>35799.81</v>
+        <v>16932.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MEKMAR</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>72599.94</v>
+        <v>788190.23</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>72599.94</v>
+        <v>724617.39</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>0</v>
@@ -541,30 +609,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VILLO HOME</t>
+          <t>MAYA</t>
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>248917.81</v>
+        <v>672434.99</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>234808.64</v>
+        <v>471956.04</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>8249.780000000001</v>
+        <v>29055.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAYA</t>
+          <t>MEKMAR</t>
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>410741.12</v>
+        <v>140989.95</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>410741.12</v>
+        <v>86464.74000000001</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>0</v>
@@ -638,7 +706,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>